--- a/biology/Médecine/Diurèse/Diurèse.xlsx
+++ b/biology/Médecine/Diurèse/Diurèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diur%C3%A8se</t>
+          <t>Diurèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La diurèse est la production de l'urine dans son ensemble, de façon qualitative et quantitative.
 La diurèse forcée est utilisée dans le domaine médical pour traiter certaines intoxications. Elle permet d’excréter certaines molécules par voie rénale. Le patient est mis sous diurétiques et on lui apporte une quantité importante de liquide en perfusion afin de renouveler rapidement l'eau de l’organisme.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diur%C3%A8se</t>
+          <t>Diurèse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Diurèse normale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'un point de vue qualitatif, la diurèse fait référence :
 à la composition de l'urine : eau, ions, composés organiques, etc. ;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diur%C3%A8se</t>
+          <t>Diurèse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Troubles de la diurèse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lors d'affections rénales, la diurèse est perturbée :
 polyurie : diurèse supérieure à 2,5 L par jour ;
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diur%C3%A8se</t>
+          <t>Diurèse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Termes dérivés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La diurèse peut être relative à l'élimination d'une substance urinaire donnée.
 Exemple : la diurèse sodique correspond à l'excrétion de sodium à travers l'urine. Il faut lui préférer le terme de natriurèse.
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Diur%C3%A8se</t>
+          <t>Diurèse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Garnier Delamar, Dictionnaire Illustré des Termes de Médecine, Maloine
 Définition de "diurèse" du grand dictionnaire terminologique
